--- a/biology/Botanique/Scabiosa_atropurpurea/Scabiosa_atropurpurea.xlsx
+++ b/biology/Botanique/Scabiosa_atropurpurea/Scabiosa_atropurpurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scabiosa atropurpurea, la Scabieuse pourpre foncé ou Scabieuse des jardins est une plante herbacée de la famille des Dipsacacées selon la classification classique de Cronquist (1981)[1], de la famille des Caprifoliacées selon la classification phylogénétique.
-La floraison a lieu de mai à octobre[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scabiosa atropurpurea, la Scabieuse pourpre foncé ou Scabieuse des jardins est une plante herbacée de la famille des Dipsacacées selon la classification classique de Cronquist (1981), de la famille des Caprifoliacées selon la classification phylogénétique.
+La floraison a lieu de mai à octobre.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sixalix atropurpurea (L.) Greuter &amp; Burdet in Willdenowia 15: 76 (1985)
 Succisa atropurpurea (L.) Moench, Methodus 490 (1794)
